--- a/expertBasedEvaluation/Cognitive Walkthrough.xlsx
+++ b/expertBasedEvaluation/Cognitive Walkthrough.xlsx
@@ -5,8 +5,8 @@
   <sheets>
     <sheet state="visible" name="Paper 1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Paper 2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Figma 1" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Paper 3" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Paper 3" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Figma 1" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Figma 2" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="Figma 3" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="Figma 4" sheetId="7" r:id="rId10"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="53">
   <si>
     <t>TASKS</t>
   </si>
@@ -52,49 +52,106 @@
     <t>B. Reperire informazioni</t>
   </si>
   <si>
+    <t>Sì, l'utente clicca sull'evento per espanderla e ottenere più informazioni</t>
+  </si>
+  <si>
+    <t>Sì, le informazioni sono disponibili senza dover fare nulla e l'azione di espandere la carta è uno standard</t>
+  </si>
+  <si>
+    <t>Sì, se l'utente vuole sapere di più su un evento cliccherà una carta, e quindi otterrà effettivamente più informazioni</t>
+  </si>
+  <si>
+    <t>Sì, tutte le informazioni sono visibili facilmente</t>
+  </si>
+  <si>
+    <t>C. Eseguire il pagamento</t>
+  </si>
+  <si>
+    <t>Sì, al pagamento ci si arriva tramite un bottone e poi selezionando il metodo di pagamento, quindi l'utente ha perfettamente in mente cosa sta facendo</t>
+  </si>
+  <si>
+    <t>Sì, appena provi a prenotare passi all'interfaccia di pagamento dove c'è scritto il prezzo ed il tasto paga messa in risalto</t>
+  </si>
+  <si>
+    <t>Sì, nella pagina pagamento c'è solo un bottone evidenziato apposta per far capire l'azione. Inoltre, la selezione del metodo di pagamento è isolata dal resto ed è una schermata standard che l'utente ritrova in più applicazioni</t>
+  </si>
+  <si>
+    <t>Più o meno, dopo il pagamento l'evento è visibile nei prenotati</t>
+  </si>
+  <si>
+    <t>D. Cercare eventi</t>
+  </si>
+  <si>
+    <t>Si, l'utente clicca il bottone della ricerca e passa all'interfaccia di ricerca eventi dove l'utente può cercare dal titolo l'evento che cerca</t>
+  </si>
+  <si>
+    <t>Sì, nella NAV c'è una lente d'ingrandimento che conduce alla sezione di ricerca. Dunque la ricerca di un evento è sempre facilmente accessibile</t>
+  </si>
+  <si>
+    <t>Si, poiché la lente d'ingrandimento e la barra di ricerca sono gli elementi standard che fanno capire che si può effettuare una ricerca di qualcosa</t>
+  </si>
+  <si>
+    <t>Si, si aprirà la barra di ricerca</t>
+  </si>
+  <si>
+    <t>E. Trovare eventi prenotati</t>
+  </si>
+  <si>
+    <t>Si, appena clicca il biglietto vedrà tutti i biglietti prenotati</t>
+  </si>
+  <si>
+    <t>Si, nella NAV c'è un biglietto per trovare le prenotazioni</t>
+  </si>
+  <si>
+    <t>Sì, perché la lista di eventi prenotati è una sezione principale dell'applicazione e infatti è messa in risalto nella NAV</t>
+  </si>
+  <si>
+    <t>Si, sono presenti gli eventi prenotati appena clicca sul bottone biglietto</t>
+  </si>
+  <si>
+    <t>F. Attivare i promemoria</t>
+  </si>
+  <si>
+    <t>Si, l'utente seleziona le notifiche che preferisce ricevere</t>
+  </si>
+  <si>
+    <t>Abbastanza, l'utente deve andare dentro settings per vedere le opzioni di notifica</t>
+  </si>
+  <si>
+    <t>Si, se è entrato dentro le notifiche capirà cosa fa il tasto promemoria</t>
+  </si>
+  <si>
+    <t>Sì, perché ci sono i toggles che fanno capire che i promemoria sono stati attivati</t>
+  </si>
+  <si>
+    <t>Sì, dopo aver effettuato la scelta delle preferenze il bottone "Fatto" diventa selezionabile</t>
+  </si>
+  <si>
+    <t>Si, la barra di ricerca permetterà di trovare l'evento che l'utente starà cercando dal titolo o genere</t>
+  </si>
+  <si>
+    <t>E. Attivare notifica conferma</t>
+  </si>
+  <si>
+    <t>Si, se è entrato dentro le notifiche capirà cosa fa il tasto conferma prenotazione</t>
+  </si>
+  <si>
+    <t>Poco, dopo il pagamento l'evento è visibile nei saved</t>
+  </si>
+  <si>
+    <t>Sì, i riquadri, il titolo "preferenze"  e il sottotitolo di quante ne sono state selezionate rende chiaro cosa bisogna fare</t>
+  </si>
+  <si>
     <t>Sì, l'utente clicca per espanderla e quindi ottenere più informazioni</t>
   </si>
   <si>
-    <t>Sì, le informazioni sono disponibili senza dover fare nulla e l'azione di espandere la carta è uno standard</t>
-  </si>
-  <si>
-    <t>Sì, se l'utente vuole sapere di più su un evento cliccherà una carta, e quindi otterrà effettivamente più informazioni</t>
-  </si>
-  <si>
-    <t>Sì, tutte le informazioni sono visibili facilmente</t>
-  </si>
-  <si>
-    <t>C. Eseguire il pagamento</t>
-  </si>
-  <si>
-    <t>Sì, al pagamento ci si arriva tramite un bottone e poi selezionando il metodo di pagamento, quindi l'utente ha perfettamente in mente cosa sta facendo</t>
-  </si>
-  <si>
     <t>Sì, sulla pagina evento è messa in risalto l'opzione per prenotare e pagare</t>
   </si>
   <si>
     <t>Sì, nella pagina evento usiamo un solo bottone evidenziato apposta per far capire l'azione. Inoltre, la selezione del metodo di pagamento è isolata dal resto ed è una schermata standard che l'utente ritrova in più applicazioni</t>
   </si>
   <si>
-    <t>Più o meno, dopo il pagamento l'evento è visibile nei prenotati</t>
-  </si>
-  <si>
-    <t>D. Cercare eventi</t>
-  </si>
-  <si>
-    <t>Abbastanza, l'utente cerca un evento e il motore di ricerca dovrebbe essere in grado di funzionare sia che l'utente cerchi il titolo dell'evento sia che cerchi altri particolari dell'evento</t>
-  </si>
-  <si>
-    <t>Sì, nella NAV c'è una lente d'ingrandimento che conduce alla sezione di ricerca. Dunque la ricerca di un evento è sempre facilmente accessibile</t>
-  </si>
-  <si>
-    <t>Si, poiché la lente d'ingrandimento e la barra di ricerca sono gli elementi standard che fanno capire che si può effettuare una ricerca di qualcosa</t>
-  </si>
-  <si>
-    <t>Si, si aprirà la barra di ricerca</t>
-  </si>
-  <si>
-    <t>E. Trovare eventi prenotati</t>
+    <t>Sì, perché nella barra di ricerca c'è scritto di cerca un evento per il titolo quindi l'utente sa qual'è la metrica da usare per la ricerca</t>
   </si>
   <si>
     <t>Si, l'utente si aspetta che dall'icona del biglietto si aprino gli eventi prenotati</t>
@@ -103,49 +160,19 @@
     <t>Si, in quasi tutte le pagine è disponibile l'icona del biglietto per transire nella pagine dei prenotati</t>
   </si>
   <si>
-    <t>Sì, perché la lista di eventi prenotati è una sezione principale dell'applicazione e infatti è messa in risalto nella NAV</t>
-  </si>
-  <si>
-    <t>Più o meno, dopo aver aperto la sezione dei prenotati si visualizzera una pagina sia di eventi salvati che quelli prenotati e non è molto facile distinguere i due</t>
-  </si>
-  <si>
-    <t>F. Attivare i promemoria</t>
-  </si>
-  <si>
-    <t>Si, l'utente seleziona le notifiche che preferisce ricevere</t>
+    <t>Abbastanza, dopo aver aperto la sezione dei prenotati si visualizzera una pagina sia di eventi salvati che prenotati, ma è facile distinguerli per via della top bar e del tag "prenotato" che hanno gli eventi prenotati</t>
+  </si>
+  <si>
+    <t>Abbastanza, perche deve prima entrare nelle impostazioni per riuscire a vederlo</t>
+  </si>
+  <si>
+    <t>Sì, dopo il pagamento appare la conferma</t>
+  </si>
+  <si>
+    <t>Sì, perché vi è una sezione dedicata nella NAV che una volta aperta visualizza tutti gli eventi prenotati. E' chiaro che essi siano siano prenotati perché la sezione si chiama "prenotati" e le cards hanno la forma di un ticket</t>
   </si>
   <si>
     <t>Si, quando entra nell'impostazione delle notifiche,l'utente vede che l'azione è disponibile</t>
-  </si>
-  <si>
-    <t>Abbastanza, perche deve prima entrare nelle impostazioni per riuscire a vederlo</t>
-  </si>
-  <si>
-    <t>Sì, perché ci sono i toggles che fanno capire che i promemoria sono stati attivati</t>
-  </si>
-  <si>
-    <t>Sì, dopo aver effettuato la scelta delle preferenze il bottone "Fatto" diventa selezionabile</t>
-  </si>
-  <si>
-    <t>Sì, perché vi è una sezione dedicata solo agli eventi prenotati</t>
-  </si>
-  <si>
-    <t>Sì, i riquadri, il titolo "preferenze"  e il sottotitolo di quante ne sono state selezionate rende chiaro cosa bisogna fare</t>
-  </si>
-  <si>
-    <t>Sì, perché nella barra di ricerca c'è scritto di cerca un evento per il titolo quindi l'utente sa qual'è la metrica da usare per la ricerca</t>
-  </si>
-  <si>
-    <t>Abbastanza, dopo aver aperto la sezione dei prenotati si visualizzera una pagina sia di eventi salvati che prenotati, ma è facile distinguerli per via della top bar e del tag "prenotato" che hanno gli eventi prenotati</t>
-  </si>
-  <si>
-    <t>Più o meno, dopo aver aperto la sezione dei salvati si visualizzerà una pagina sia di eventi salvati che quelli prenotati e non è molto facile distinguere i due</t>
-  </si>
-  <si>
-    <t>Sì, dopo il pagamento appare la conferma</t>
-  </si>
-  <si>
-    <t>Sì, perché vi è una sezione dedicata nella NAV che una volta aperta visualizza tutti gli eventi prenotati. E' chiaro che essi siano siano prenotati perché la sezione si chiama "prenotati" e le cards hanno la forma di un ticket</t>
   </si>
   <si>
     <t>Sì, perché dopo aver attivato i promemoria con un allert ben visibile, compare un secondo allert che specifica dove modificare i promemoria</t>
@@ -193,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,8 +247,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD0E0E3"/>
-        <bgColor rgb="FFD0E0E3"/>
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
       </patternFill>
     </fill>
     <fill>
@@ -232,8 +259,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC9DAF8"/>
-        <bgColor rgb="FFC9DAF8"/>
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0E0E3"/>
+        <bgColor rgb="FFD0E0E3"/>
       </patternFill>
     </fill>
   </fills>
@@ -243,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -275,6 +308,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -599,7 +635,7 @@
       <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -625,7 +661,7 @@
       <c r="D6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -636,10 +672,10 @@
       <c r="B7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -743,8 +779,8 @@
       <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>21</v>
+      <c r="B5" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
@@ -758,19 +794,19 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -780,10 +816,10 @@
       <c r="B7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -842,8 +878,8 @@
       <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>37</v>
+      <c r="D2" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>35</v>
@@ -879,8 +915,8 @@
       <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>19</v>
+      <c r="E4" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5">
@@ -888,7 +924,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
@@ -902,19 +938,19 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -924,10 +960,10 @@
       <c r="B7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -987,7 +1023,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>35</v>
@@ -998,7 +1034,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>12</v>
@@ -1018,10 +1054,10 @@
         <v>16</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>19</v>
@@ -1031,8 +1067,8 @@
       <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>21</v>
+      <c r="B5" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
@@ -1049,16 +1085,16 @@
         <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>40</v>
+      <c r="E6" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7">
@@ -1068,11 +1104,11 @@
       <c r="B7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>33</v>
+      <c r="D7" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>34</v>
@@ -1131,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>35</v>
@@ -1142,7 +1178,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>12</v>
@@ -1162,13 +1198,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -1176,7 +1212,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
@@ -1193,16 +1229,16 @@
         <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -1212,11 +1248,11 @@
       <c r="B7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>33</v>
+      <c r="D7" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>34</v>
@@ -1275,7 +1311,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>35</v>
@@ -1286,7 +1322,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>12</v>
@@ -1306,13 +1342,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -1320,7 +1356,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
@@ -1337,16 +1373,16 @@
         <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -1357,10 +1393,10 @@
         <v>31</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>34</v>
@@ -1419,7 +1455,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>35</v>
@@ -1430,7 +1466,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>12</v>
@@ -1450,13 +1486,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -1464,7 +1500,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
@@ -1481,16 +1517,16 @@
         <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -1501,10 +1537,10 @@
         <v>31</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>34</v>
